--- a/DATOS.xlsx
+++ b/DATOS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Desktop\U\Auxiliatura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\Genetic-Algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E786C47-C000-4612-9EFC-58A14ABD93AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA732C35-9A4F-4F7B-8D2C-418718B688A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="16980" windowHeight="9795" xr2:uid="{C616794A-FEDB-46F4-9919-595FD8790DAB}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{C616794A-FEDB-46F4-9919-595FD8790DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B209B11C-9F92-42DE-B7F0-B303AD0E19AE}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -663,7 +663,7 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -701,10 +701,10 @@
         <v>1.8</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -742,7 +742,7 @@
         <v>1.6</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>2</v>
@@ -783,10 +783,10 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -824,7 +824,7 @@
         <v>0.5</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>2</v>
@@ -865,7 +865,7 @@
         <v>0.9</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -876,7 +876,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
         <v>14</v>
@@ -906,10 +906,10 @@
         <v>1.7000000000000002</v>
       </c>
       <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
         <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -947,10 +947,10 @@
         <v>0.5</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
